--- a/Entrega Final/Documentos/BOM proyecto.xlsx
+++ b/Entrega Final/Documentos/BOM proyecto.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Documents\GitHub\Dis.-Mecatronico-E6\Entrega Final\Documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7379384-1275-4CE1-86A4-78CFA388D9FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF158B71-C66E-459E-8334-1A9F674F96C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{3B5F38B0-0A0B-4070-B5D2-FDE83C56DA9E}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="282">
   <si>
     <t>Item</t>
   </si>
@@ -855,13 +855,40 @@
   </si>
   <si>
     <t>Placa acero A36 espesor 1/4'' 170x90</t>
+  </si>
+  <si>
+    <t>BOM Diseño mecánico</t>
+  </si>
+  <si>
+    <t>Montaje de silllas</t>
+  </si>
+  <si>
+    <t>Sillas</t>
+  </si>
+  <si>
+    <t>Generico</t>
+  </si>
+  <si>
+    <t>Kit de montaje lateral para asientos de cubo.</t>
+  </si>
+  <si>
+    <t>Asientos de cubo para instalación en el mecanismo</t>
+  </si>
+  <si>
+    <t>FK Automotive</t>
+  </si>
+  <si>
+    <t>Bucket Seat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	FKRSE010171</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -908,14 +935,26 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF202124"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Skin-market-sans"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Roboto"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -932,7 +971,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -1145,11 +1184,95 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1157,9 +1280,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1179,77 +1299,155 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1565,1096 +1763,1091 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93A826F9-2BF9-45AF-BFBA-62AD7076E3EF}">
-  <dimension ref="C2:I53"/>
+  <dimension ref="C1:I53"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E45" sqref="E45"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="8.5703125" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" customWidth="1"/>
-    <col min="5" max="5" width="33" customWidth="1"/>
-    <col min="6" max="6" width="21.42578125" customWidth="1"/>
-    <col min="7" max="7" width="20.28515625" customWidth="1"/>
-    <col min="8" max="8" width="17.140625" customWidth="1"/>
-    <col min="9" max="9" width="19.5703125" customWidth="1"/>
+    <col min="3" max="9" width="26.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C2" s="32" t="s">
+    <row r="1" spans="3:9" ht="15.75" thickBot="1"/>
+    <row r="2" spans="3:9" ht="48" customHeight="1" thickBot="1">
+      <c r="C2" s="44" t="s">
         <v>160</v>
       </c>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-    </row>
-    <row r="3" spans="3:9" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C3" s="3" t="s">
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="46"/>
+    </row>
+    <row r="3" spans="3:9" s="6" customFormat="1" ht="30" customHeight="1" thickBot="1">
+      <c r="C3" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="3" t="s">
+      <c r="D3" s="48" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="48" t="s">
         <v>45</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="49" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="3:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="3">
-        <v>1</v>
-      </c>
-      <c r="D4" s="3" t="s">
+    <row r="4" spans="3:9" ht="45" customHeight="1">
+      <c r="C4" s="41">
+        <v>1</v>
+      </c>
+      <c r="D4" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="42">
         <v>420218</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="3:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="3">
+      <c r="I4" s="43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="3:9" ht="45" customHeight="1">
+      <c r="C5" s="36">
         <f>C4+1</f>
         <v>2</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="I5" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="3:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="3">
+      <c r="I5" s="37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="3:9" ht="45" customHeight="1">
+      <c r="C6" s="36">
         <f t="shared" ref="C6:C8" si="0">C5+1</f>
         <v>3</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="G6" s="25">
+      <c r="G6" s="11">
         <v>26239</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="H6" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="I6" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="3:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="3">
+      <c r="I6" s="37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="3:9" ht="45" customHeight="1">
+      <c r="C7" s="36">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="H7" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="I7" s="3">
+      <c r="I7" s="37">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="3:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="3">
+    <row r="8" spans="3:9" ht="45" customHeight="1">
+      <c r="C8" s="36">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="H8" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="I8" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="3:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C9" s="3">
+      <c r="I8" s="37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="3:9" ht="45" customHeight="1">
+      <c r="C9" s="36">
         <f>C8+1</f>
         <v>6</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G9" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="H9" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="I9" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="3:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="3">
+      <c r="I9" s="37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="3:9" ht="45" customHeight="1">
+      <c r="C10" s="36">
         <f t="shared" ref="C10:C44" si="1">C9+1</f>
         <v>7</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="G10" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="H10" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="I10" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="3:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C11" s="3">
+      <c r="I10" s="37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="3:9" ht="45" customHeight="1">
+      <c r="C11" s="36">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="G11" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="H11" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="I11" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="3:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="3">
+      <c r="I11" s="37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="3:9" ht="45" customHeight="1">
+      <c r="C12" s="36">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="G12" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="H12" s="3" t="s">
+      <c r="H12" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="I12" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="3:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C13" s="3">
+      <c r="I12" s="37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="3:9" ht="45" customHeight="1">
+      <c r="C13" s="36">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F13" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="G13" s="25" t="s">
+      <c r="G13" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="H13" s="3" t="s">
+      <c r="H13" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="I13" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="3:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C14" s="3">
+      <c r="I13" s="37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="3:9" ht="45" customHeight="1">
+      <c r="C14" s="36">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="G14" s="6" t="s">
+      <c r="G14" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="H14" s="3" t="s">
+      <c r="H14" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="I14" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="3:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="3">
+      <c r="I14" s="37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="3:9" ht="45" customHeight="1">
+      <c r="C15" s="36">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="F15" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="G15" s="6" t="s">
+      <c r="G15" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="H15" s="3" t="s">
+      <c r="H15" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="I15" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="3:9" ht="52.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C16" s="3">
+      <c r="I15" s="37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="3:9" ht="52.15" customHeight="1">
+      <c r="C16" s="36">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E16" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="F16" s="6" t="s">
+      <c r="F16" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="G16" s="6" t="s">
+      <c r="G16" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="H16" s="3" t="s">
+      <c r="H16" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="I16" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="3:9" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C17" s="3">
+      <c r="I16" s="37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="3:9" ht="58.15" customHeight="1">
+      <c r="C17" s="36">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E17" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="F17" s="6" t="s">
+      <c r="F17" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="G17" s="6" t="s">
+      <c r="G17" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="H17" s="3" t="s">
+      <c r="H17" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="I17" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="3:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C18" s="3">
+      <c r="I17" s="37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="3:9" ht="45" customHeight="1">
+      <c r="C18" s="36">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E18" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="F18" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="G18" s="6" t="s">
+      <c r="G18" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="H18" s="3" t="s">
+      <c r="H18" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="I18" s="3">
+      <c r="I18" s="37">
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="3:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C19" s="3">
+    <row r="19" spans="3:9" ht="45" customHeight="1">
+      <c r="C19" s="36">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="E19" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="F19" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="G19" s="6" t="s">
+      <c r="G19" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="H19" s="3" t="s">
+      <c r="H19" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="I19" s="3">
+      <c r="I19" s="37">
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="3:9" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C20" s="3">
+    <row r="20" spans="3:9" ht="60" customHeight="1">
+      <c r="C20" s="36">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="E20" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="F20" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="G20" s="6" t="s">
+      <c r="G20" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="H20" s="3" t="s">
+      <c r="H20" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="I20" s="3">
+      <c r="I20" s="37">
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="3:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C21" s="3">
+    <row r="21" spans="3:9" ht="45" customHeight="1">
+      <c r="C21" s="36">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="E21" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="F21" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="G21" s="3" t="s">
+      <c r="G21" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="H21" s="3" t="s">
+      <c r="H21" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="I21" s="3">
+      <c r="I21" s="37">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="3:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C22" s="3">
+    <row r="22" spans="3:9" ht="45" customHeight="1">
+      <c r="C22" s="36">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="E22" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="F22" s="3" t="s">
+      <c r="F22" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="G22" s="3" t="s">
+      <c r="G22" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="H22" s="3" t="s">
+      <c r="H22" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="I22" s="3">
+      <c r="I22" s="37">
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="3:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C23" s="3">
+    <row r="23" spans="3:9" ht="45" customHeight="1">
+      <c r="C23" s="36">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D23" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="E23" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="F23" s="3" t="s">
+      <c r="F23" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="G23" s="3" t="s">
+      <c r="G23" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="H23" s="3" t="s">
+      <c r="H23" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="I23" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="3:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C24" s="3">
+      <c r="I23" s="37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="3:9" ht="45" customHeight="1">
+      <c r="C24" s="36">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D24" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="E24" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="F24" s="3" t="s">
+      <c r="F24" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="G24" s="3" t="s">
+      <c r="G24" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="H24" s="3" t="s">
+      <c r="H24" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="I24" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="3:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C25" s="3">
+      <c r="I24" s="37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="3:9" ht="45" customHeight="1">
+      <c r="C25" s="36">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="D25" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="E25" s="3" t="s">
+      <c r="E25" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="F25" s="3" t="s">
+      <c r="F25" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="G25" s="3" t="s">
+      <c r="G25" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="H25" s="3" t="s">
+      <c r="H25" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="I25" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="3:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C26" s="3">
+      <c r="I25" s="37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="3:9" ht="45" customHeight="1">
+      <c r="C26" s="36">
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="D26" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="E26" s="3" t="s">
+      <c r="E26" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="F26" s="3" t="s">
+      <c r="F26" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="G26" s="3" t="s">
+      <c r="G26" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="H26" s="3" t="s">
+      <c r="H26" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="I26" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="3:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C27" s="3">
+      <c r="I26" s="37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="3:9" ht="45" customHeight="1">
+      <c r="C27" s="36">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="D27" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="E27" s="3" t="s">
+      <c r="E27" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="F27" s="3" t="s">
+      <c r="F27" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="G27" s="3" t="s">
+      <c r="G27" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="H27" s="3" t="s">
+      <c r="H27" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="I27" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="3:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C28" s="3">
+      <c r="I27" s="37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="3:9" ht="45" customHeight="1">
+      <c r="C28" s="36">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="D28" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="E28" s="3" t="s">
+      <c r="E28" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="F28" s="3" t="s">
+      <c r="F28" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="G28" s="3" t="s">
+      <c r="G28" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="H28" s="3" t="s">
+      <c r="H28" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="I28" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="3:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C29" s="3">
+      <c r="I28" s="37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="3:9" ht="45" customHeight="1">
+      <c r="C29" s="36">
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D29" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="E29" s="3" t="s">
+      <c r="E29" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="F29" s="3" t="s">
+      <c r="F29" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="G29" s="3" t="s">
+      <c r="G29" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="H29" s="3" t="s">
+      <c r="H29" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="I29" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="3:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C30" s="3">
+      <c r="I29" s="37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="3:9" ht="45" customHeight="1">
+      <c r="C30" s="36">
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="D30" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="E30" s="3" t="s">
+      <c r="E30" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="F30" s="3" t="s">
+      <c r="F30" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="G30" s="3" t="s">
+      <c r="G30" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="H30" s="3" t="s">
+      <c r="H30" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="I30" s="3">
+      <c r="I30" s="37">
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="3:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C31" s="3">
+    <row r="31" spans="3:9" ht="45" customHeight="1">
+      <c r="C31" s="36">
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
-      <c r="D31" s="3" t="s">
+      <c r="D31" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="E31" s="3" t="s">
+      <c r="E31" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="F31" s="3" t="s">
+      <c r="F31" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="G31" s="3" t="s">
+      <c r="G31" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="H31" s="3" t="s">
+      <c r="H31" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="I31" s="3">
+      <c r="I31" s="37">
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="3:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C32" s="3">
+    <row r="32" spans="3:9" ht="45" customHeight="1">
+      <c r="C32" s="36">
         <f t="shared" si="1"/>
         <v>29</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="D32" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="E32" s="3" t="s">
+      <c r="E32" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="F32" s="3" t="s">
+      <c r="F32" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="G32" s="3" t="s">
+      <c r="G32" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="H32" s="3" t="s">
+      <c r="H32" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="I32" s="3">
+      <c r="I32" s="37">
         <v>36</v>
       </c>
     </row>
-    <row r="33" spans="3:9" ht="43.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C33" s="3">
+    <row r="33" spans="3:9" ht="43.9" customHeight="1">
+      <c r="C33" s="36">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="D33" s="3" t="s">
+      <c r="D33" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="E33" s="3" t="s">
+      <c r="E33" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="F33" s="3" t="s">
+      <c r="F33" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="G33" s="3" t="s">
+      <c r="G33" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="H33" s="3" t="s">
+      <c r="H33" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="I33" s="3">
+      <c r="I33" s="37">
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="3:9" ht="43.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C34" s="3">
+    <row r="34" spans="3:9" ht="43.9" customHeight="1">
+      <c r="C34" s="36">
         <f t="shared" si="1"/>
         <v>31</v>
       </c>
-      <c r="D34" s="3" t="s">
+      <c r="D34" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="E34" s="3" t="s">
+      <c r="E34" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="F34" s="3" t="s">
+      <c r="F34" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="G34" s="3" t="s">
+      <c r="G34" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="H34" s="3" t="s">
+      <c r="H34" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="I34" s="3">
+      <c r="I34" s="37">
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="3:9" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C35" s="3">
+    <row r="35" spans="3:9" ht="48.6" customHeight="1">
+      <c r="C35" s="36">
         <f t="shared" si="1"/>
         <v>32</v>
       </c>
-      <c r="D35" s="3" t="s">
+      <c r="D35" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="E35" s="3" t="s">
+      <c r="E35" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="F35" s="3" t="s">
+      <c r="F35" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="G35" s="3" t="s">
+      <c r="G35" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="H35" s="3" t="s">
+      <c r="H35" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="I35" s="3">
+      <c r="I35" s="37">
         <v>12</v>
       </c>
     </row>
-    <row r="36" spans="3:9" ht="46.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C36" s="3">
+    <row r="36" spans="3:9" ht="46.15" customHeight="1">
+      <c r="C36" s="36">
         <f t="shared" si="1"/>
         <v>33</v>
       </c>
-      <c r="D36" s="3" t="s">
+      <c r="D36" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="E36" s="3" t="s">
+      <c r="E36" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="F36" s="3" t="s">
+      <c r="F36" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="G36" s="3" t="s">
+      <c r="G36" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="H36" s="3" t="s">
+      <c r="H36" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="I36" s="3">
+      <c r="I36" s="37">
         <v>36</v>
       </c>
     </row>
-    <row r="37" spans="3:9" ht="43.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C37" s="3">
+    <row r="37" spans="3:9" ht="43.9" customHeight="1">
+      <c r="C37" s="36">
         <f t="shared" si="1"/>
         <v>34</v>
       </c>
-      <c r="D37" s="3" t="s">
+      <c r="D37" s="12" t="s">
         <v>150</v>
       </c>
-      <c r="E37" s="3" t="s">
+      <c r="E37" s="12" t="s">
         <v>159</v>
       </c>
-      <c r="F37" s="3" t="s">
+      <c r="F37" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="G37" s="3" t="s">
+      <c r="G37" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="H37" s="3" t="s">
+      <c r="H37" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="I37" s="3">
+      <c r="I37" s="37">
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="3:9" ht="54.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C38" s="3">
+    <row r="38" spans="3:9" ht="54.6" customHeight="1">
+      <c r="C38" s="36">
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
-      <c r="D38" s="3" t="s">
+      <c r="D38" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="E38" s="3" t="s">
+      <c r="E38" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="F38" s="3" t="s">
+      <c r="F38" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="G38" s="3" t="s">
+      <c r="G38" s="12" t="s">
         <v>152</v>
       </c>
-      <c r="H38" s="3" t="s">
+      <c r="H38" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="I38" s="3">
+      <c r="I38" s="37">
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="3:9" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C39" s="3">
+    <row r="39" spans="3:9" ht="38.450000000000003" customHeight="1">
+      <c r="C39" s="36">
         <f t="shared" si="1"/>
         <v>36</v>
       </c>
-      <c r="D39" s="3" t="s">
+      <c r="D39" s="12" t="s">
         <v>155</v>
       </c>
-      <c r="E39" s="3" t="s">
+      <c r="E39" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="F39" s="3" t="s">
+      <c r="F39" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="G39" s="3" t="s">
+      <c r="G39" s="12" t="s">
         <v>154</v>
       </c>
-      <c r="H39" s="3" t="s">
+      <c r="H39" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="I39" s="3">
+      <c r="I39" s="37">
         <v>12</v>
       </c>
     </row>
-    <row r="40" spans="3:9" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C40" s="3">
+    <row r="40" spans="3:9" ht="38.450000000000003" customHeight="1">
+      <c r="C40" s="36">
         <f t="shared" si="1"/>
         <v>37</v>
       </c>
-      <c r="D40" s="3" t="s">
+      <c r="D40" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="E40" s="3" t="s">
+      <c r="E40" s="12" t="s">
         <v>157</v>
       </c>
-      <c r="F40" s="3" t="s">
+      <c r="F40" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="G40" s="3" t="s">
+      <c r="G40" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="H40" s="3" t="s">
+      <c r="H40" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="I40" s="3">
+      <c r="I40" s="37">
         <v>36</v>
       </c>
     </row>
-    <row r="41" spans="3:9" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C41" s="3">
+    <row r="41" spans="3:9" ht="48.6" customHeight="1">
+      <c r="C41" s="36">
         <f t="shared" si="1"/>
         <v>38</v>
       </c>
-      <c r="D41" s="3" t="s">
+      <c r="D41" s="12" t="s">
         <v>156</v>
       </c>
-      <c r="E41" s="3" t="s">
+      <c r="E41" s="12" t="s">
         <v>157</v>
       </c>
-      <c r="F41" s="3" t="s">
+      <c r="F41" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="G41" s="3" t="s">
+      <c r="G41" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="H41" s="3" t="s">
+      <c r="H41" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="I41" s="3">
+      <c r="I41" s="37">
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="3:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="C42" s="3">
+    <row r="42" spans="3:9" ht="60">
+      <c r="C42" s="36">
         <f t="shared" si="1"/>
         <v>39</v>
       </c>
-      <c r="D42" s="3" t="s">
+      <c r="D42" s="12" t="s">
         <v>256</v>
       </c>
-      <c r="E42" s="3" t="s">
+      <c r="E42" s="12" t="s">
         <v>260</v>
       </c>
-      <c r="F42" s="3" t="s">
+      <c r="F42" s="12" t="s">
         <v>259</v>
       </c>
-      <c r="G42" s="3" t="s">
+      <c r="G42" s="12" t="s">
         <v>252</v>
       </c>
-      <c r="H42" s="3" t="s">
+      <c r="H42" s="12" t="s">
         <v>253</v>
       </c>
-      <c r="I42" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="3:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="C43" s="3">
+      <c r="I42" s="37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="3:9" ht="60">
+      <c r="C43" s="36">
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="D43" s="3" t="s">
+      <c r="D43" s="12" t="s">
         <v>257</v>
       </c>
-      <c r="E43" s="3" t="s">
+      <c r="E43" s="12" t="s">
         <v>261</v>
       </c>
-      <c r="F43" s="3" t="s">
+      <c r="F43" s="12" t="s">
         <v>259</v>
       </c>
-      <c r="G43" s="3" t="s">
+      <c r="G43" s="12" t="s">
         <v>254</v>
       </c>
-      <c r="H43" s="3" t="s">
+      <c r="H43" s="12" t="s">
         <v>253</v>
       </c>
-      <c r="I43" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="3:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="C44" s="3">
+      <c r="I43" s="37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="3:9" ht="75.75" thickBot="1">
+      <c r="C44" s="38">
         <f t="shared" si="1"/>
         <v>41</v>
       </c>
-      <c r="D44" s="3" t="s">
+      <c r="D44" s="39" t="s">
         <v>258</v>
       </c>
-      <c r="E44" s="3" t="s">
+      <c r="E44" s="39" t="s">
         <v>262</v>
       </c>
-      <c r="F44" s="3" t="s">
+      <c r="F44" s="39" t="s">
         <v>259</v>
       </c>
-      <c r="G44" s="3" t="s">
+      <c r="G44" s="39" t="s">
         <v>112</v>
       </c>
-      <c r="H44" s="3" t="s">
+      <c r="H44" s="39" t="s">
         <v>255</v>
       </c>
-      <c r="I44" s="3">
+      <c r="I44" s="40">
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C45" s="5"/>
-      <c r="D45" s="5"/>
-      <c r="E45" s="5"/>
-      <c r="F45" s="5"/>
-      <c r="G45" s="16"/>
-      <c r="H45" s="5"/>
-      <c r="I45" s="5"/>
-    </row>
-    <row r="46" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C46" s="5"/>
-      <c r="D46" s="5"/>
-      <c r="E46" s="5"/>
-      <c r="F46" s="5"/>
-      <c r="G46" s="16"/>
-      <c r="H46" s="5"/>
-      <c r="I46" s="5"/>
-    </row>
-    <row r="47" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C47" s="5"/>
-    </row>
-    <row r="48" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C48" s="5"/>
-    </row>
-    <row r="49" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C49" s="5"/>
-    </row>
-    <row r="50" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C50" s="5"/>
-    </row>
-    <row r="51" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C51" s="5"/>
-      <c r="D51" s="5"/>
-      <c r="E51" s="5"/>
-      <c r="F51" s="5"/>
-      <c r="G51" s="16"/>
-      <c r="H51" s="5"/>
-      <c r="I51" s="5"/>
-    </row>
-    <row r="52" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C52" s="5"/>
-      <c r="D52" s="5"/>
-      <c r="E52" s="5"/>
-      <c r="F52" s="5"/>
-      <c r="G52" s="16"/>
-      <c r="H52" s="5"/>
-      <c r="I52" s="5"/>
-    </row>
-    <row r="53" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C53" s="5"/>
-      <c r="D53" s="5"/>
-      <c r="E53" s="5"/>
-      <c r="F53" s="5"/>
-      <c r="G53" s="16"/>
-      <c r="H53" s="5"/>
-      <c r="I53" s="5"/>
+    <row r="45" spans="3:9">
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="10"/>
+      <c r="H45" s="4"/>
+      <c r="I45" s="4"/>
+    </row>
+    <row r="46" spans="3:9">
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="10"/>
+      <c r="H46" s="4"/>
+      <c r="I46" s="4"/>
+    </row>
+    <row r="47" spans="3:9">
+      <c r="C47" s="4"/>
+    </row>
+    <row r="48" spans="3:9">
+      <c r="C48" s="4"/>
+    </row>
+    <row r="49" spans="3:9">
+      <c r="C49" s="4"/>
+    </row>
+    <row r="50" spans="3:9">
+      <c r="C50" s="4"/>
+    </row>
+    <row r="51" spans="3:9">
+      <c r="C51" s="4"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="10"/>
+      <c r="H51" s="4"/>
+      <c r="I51" s="4"/>
+    </row>
+    <row r="52" spans="3:9">
+      <c r="C52" s="4"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="10"/>
+      <c r="H52" s="4"/>
+      <c r="I52" s="4"/>
+    </row>
+    <row r="53" spans="3:9">
+      <c r="C53" s="4"/>
+      <c r="D53" s="4"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="4"/>
+      <c r="G53" s="10"/>
+      <c r="H53" s="4"/>
+      <c r="I53" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2668,13 +2861,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AFE010A-6BAB-411E-9B54-10878074D398}">
-  <dimension ref="B1:H34"/>
+  <dimension ref="B1:H36"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="9.28515625" customWidth="1"/>
     <col min="3" max="3" width="21.7109375" customWidth="1"/>
@@ -2685,777 +2878,825 @@
     <col min="8" max="8" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="33" t="s">
-        <v>160</v>
-      </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="35"/>
-    </row>
-    <row r="3" spans="2:8" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="B3" s="20" t="s">
+    <row r="1" spans="2:8" ht="15.75" thickBot="1"/>
+    <row r="2" spans="2:8" ht="48.75" customHeight="1" thickBot="1">
+      <c r="B2" s="13" t="s">
+        <v>273</v>
+      </c>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="15"/>
+    </row>
+    <row r="3" spans="2:8" ht="20.25">
+      <c r="B3" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="20" t="s">
+      <c r="C3" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="20" t="s">
+      <c r="E3" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="F3" s="20" t="s">
+      <c r="F3" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="20" t="s">
+      <c r="G3" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="20" t="s">
+      <c r="H3" s="23" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="67.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="17">
-        <v>1</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>161</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>165</v>
-      </c>
-      <c r="E4" s="17" t="s">
-        <v>162</v>
-      </c>
-      <c r="F4" s="17" t="s">
-        <v>163</v>
-      </c>
-      <c r="G4" s="17" t="s">
-        <v>164</v>
-      </c>
-      <c r="H4" s="17">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" ht="64.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="17">
+    <row r="4" spans="2:8" ht="42.75">
+      <c r="B4" s="24">
+        <v>1</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>275</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>278</v>
+      </c>
+      <c r="E4" s="25" t="s">
+        <v>280</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>281</v>
+      </c>
+      <c r="G4" s="26" t="s">
+        <v>279</v>
+      </c>
+      <c r="H4" s="27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" ht="42.75">
+      <c r="B5" s="24">
         <f>B4+1</f>
         <v>2</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="16" t="s">
+        <v>274</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>277</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="F5" s="28" t="s">
+        <v>249</v>
+      </c>
+      <c r="G5" s="16" t="s">
+        <v>276</v>
+      </c>
+      <c r="H5" s="27">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" ht="91.5" customHeight="1">
+      <c r="B6" s="24">
+        <f>B5+1</f>
+        <v>3</v>
+      </c>
+      <c r="C6" s="16" t="s">
         <v>161</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D6" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="G6" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="H6" s="27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" ht="64.150000000000006" customHeight="1">
+      <c r="B7" s="24">
+        <f>B6+1</f>
+        <v>4</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="D7" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="E7" s="16" t="s">
         <v>162</v>
       </c>
-      <c r="F5" s="17" t="s">
+      <c r="F7" s="16" t="s">
         <v>167</v>
       </c>
-      <c r="G5" s="17" t="s">
+      <c r="G7" s="16" t="s">
         <v>164</v>
       </c>
-      <c r="H5" s="17">
+      <c r="H7" s="27">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="17">
-        <f t="shared" ref="B6:B8" si="0">B5+1</f>
-        <v>3</v>
-      </c>
-      <c r="C6" s="17" t="s">
+    <row r="8" spans="2:8" ht="85.5">
+      <c r="B8" s="24">
+        <f t="shared" ref="B8:B10" si="0">B7+1</f>
+        <v>5</v>
+      </c>
+      <c r="C8" s="16" t="s">
         <v>161</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="D8" s="16" t="s">
         <v>168</v>
       </c>
-      <c r="E6" s="17" t="s">
+      <c r="E8" s="16" t="s">
         <v>162</v>
       </c>
-      <c r="F6" s="17" t="s">
+      <c r="F8" s="16" t="s">
         <v>163</v>
       </c>
-      <c r="G6" s="17" t="s">
+      <c r="G8" s="16" t="s">
         <v>164</v>
       </c>
-      <c r="H6" s="17">
+      <c r="H8" s="27">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="2:8" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="B7" s="17">
+    <row r="9" spans="2:8" ht="85.5">
+      <c r="B9" s="24">
         <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="G9" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="H9" s="27">
         <v>4</v>
       </c>
-      <c r="C7" s="17" t="s">
+    </row>
+    <row r="10" spans="2:8" ht="85.5">
+      <c r="B10" s="24">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="C10" s="16" t="s">
         <v>161</v>
       </c>
-      <c r="D7" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="E7" s="17" t="s">
+      <c r="D10" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="E10" s="16" t="s">
         <v>162</v>
       </c>
-      <c r="F7" s="17" t="s">
+      <c r="F10" s="16" t="s">
         <v>163</v>
       </c>
-      <c r="G7" s="17" t="s">
+      <c r="G10" s="16" t="s">
         <v>164</v>
       </c>
-      <c r="H7" s="17">
+      <c r="H10" s="27">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" ht="85.5">
+      <c r="B11" s="24">
+        <f>B10+1</f>
+        <v>8</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="G11" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="H11" s="27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" ht="85.5">
+      <c r="B12" s="24">
+        <f t="shared" ref="B12:B36" si="1">B11+1</f>
+        <v>9</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="G12" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="H12" s="27">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" ht="85.5">
+      <c r="B13" s="24">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>176</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="F13" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="G13" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="H13" s="27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" ht="63.75" customHeight="1">
+      <c r="B14" s="24">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>182</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>183</v>
+      </c>
+      <c r="F14" s="16" t="s">
+        <v>184</v>
+      </c>
+      <c r="G14" s="16" t="s">
+        <v>185</v>
+      </c>
+      <c r="H14" s="27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" ht="30">
+      <c r="B15" s="24">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>242</v>
+      </c>
+      <c r="F15" s="19" t="s">
+        <v>207</v>
+      </c>
+      <c r="G15" s="19" t="s">
+        <v>206</v>
+      </c>
+      <c r="H15" s="27">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="2:8" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="17">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="C8" s="17" t="s">
-        <v>161</v>
-      </c>
-      <c r="D8" s="17" t="s">
-        <v>170</v>
-      </c>
-      <c r="E8" s="17" t="s">
-        <v>162</v>
-      </c>
-      <c r="F8" s="17" t="s">
-        <v>163</v>
-      </c>
-      <c r="G8" s="17" t="s">
+    <row r="16" spans="2:8" ht="42.75">
+      <c r="B16" s="24">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>250</v>
+      </c>
+      <c r="F16" s="20" t="s">
+        <v>249</v>
+      </c>
+      <c r="G16" s="16" t="s">
         <v>164</v>
       </c>
-      <c r="H8" s="17">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="17">
-        <f>B8+1</f>
-        <v>6</v>
-      </c>
-      <c r="C9" s="17" t="s">
-        <v>161</v>
-      </c>
-      <c r="D9" s="17" t="s">
-        <v>171</v>
-      </c>
-      <c r="E9" s="17" t="s">
-        <v>162</v>
-      </c>
-      <c r="F9" s="17" t="s">
-        <v>163</v>
-      </c>
-      <c r="G9" s="17" t="s">
+      <c r="H16" s="27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" ht="28.5">
+      <c r="B17" s="24">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>180</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>250</v>
+      </c>
+      <c r="F17" s="20" t="s">
+        <v>249</v>
+      </c>
+      <c r="G17" s="16" t="s">
         <v>164</v>
       </c>
-      <c r="H9" s="17">
+      <c r="H17" s="27">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="2:8" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="17">
-        <f t="shared" ref="B10:B34" si="1">B9+1</f>
-        <v>7</v>
-      </c>
-      <c r="C10" s="17" t="s">
-        <v>161</v>
-      </c>
-      <c r="D10" s="17" t="s">
-        <v>172</v>
-      </c>
-      <c r="E10" s="17" t="s">
-        <v>162</v>
-      </c>
-      <c r="F10" s="17" t="s">
-        <v>163</v>
-      </c>
-      <c r="G10" s="17" t="s">
+    <row r="18" spans="2:8" ht="38.25" customHeight="1">
+      <c r="B18" s="24">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>186</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="E18" s="20" t="s">
+        <v>250</v>
+      </c>
+      <c r="F18" s="20" t="s">
+        <v>249</v>
+      </c>
+      <c r="G18" s="16" t="s">
         <v>164</v>
       </c>
-      <c r="H10" s="17">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="B11" s="17">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="C11" s="17" t="s">
-        <v>173</v>
-      </c>
-      <c r="D11" s="18" t="s">
-        <v>176</v>
-      </c>
-      <c r="E11" s="17" t="s">
-        <v>175</v>
-      </c>
-      <c r="F11" s="17" t="s">
-        <v>174</v>
-      </c>
-      <c r="G11" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="H11" s="17">
+      <c r="H18" s="27">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="2:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="17">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="C12" s="17" t="s">
-        <v>177</v>
-      </c>
-      <c r="D12" s="17" t="s">
-        <v>182</v>
-      </c>
-      <c r="E12" s="17" t="s">
-        <v>183</v>
-      </c>
-      <c r="F12" s="17" t="s">
-        <v>184</v>
-      </c>
-      <c r="G12" s="17" t="s">
-        <v>185</v>
-      </c>
-      <c r="H12" s="17">
+    <row r="19" spans="2:8">
+      <c r="B19" s="24">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>190</v>
+      </c>
+      <c r="E19" s="20" t="s">
+        <v>191</v>
+      </c>
+      <c r="F19" s="20"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="27">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="2:8" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B13" s="17">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="C13" s="17" t="s">
-        <v>178</v>
-      </c>
-      <c r="D13" s="17" t="s">
-        <v>205</v>
-      </c>
-      <c r="E13" s="17" t="s">
-        <v>242</v>
-      </c>
-      <c r="F13" s="21" t="s">
-        <v>207</v>
-      </c>
-      <c r="G13" s="21" t="s">
+    <row r="20" spans="2:8" ht="42.75">
+      <c r="B20" s="24">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>193</v>
+      </c>
+      <c r="D20" s="16" t="s">
+        <v>210</v>
+      </c>
+      <c r="E20" s="16" t="s">
+        <v>209</v>
+      </c>
+      <c r="F20" s="19" t="s">
+        <v>208</v>
+      </c>
+      <c r="G20" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="H20" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" ht="30">
+      <c r="B21" s="24">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>219</v>
+      </c>
+      <c r="E21" s="16" t="s">
+        <v>218</v>
+      </c>
+      <c r="F21" s="19" t="s">
+        <v>217</v>
+      </c>
+      <c r="G21" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="H21" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" ht="45">
+      <c r="B22" s="24">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>199</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>216</v>
+      </c>
+      <c r="E22" s="17" t="s">
+        <v>215</v>
+      </c>
+      <c r="F22" s="19" t="s">
+        <v>214</v>
+      </c>
+      <c r="G22" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="H22" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" ht="45">
+      <c r="B23" s="24">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="C23" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>222</v>
+      </c>
+      <c r="E23" s="17" t="s">
+        <v>221</v>
+      </c>
+      <c r="F23" s="19" t="s">
+        <v>220</v>
+      </c>
+      <c r="G23" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="H23" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" ht="28.5">
+      <c r="B24" s="24">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>201</v>
+      </c>
+      <c r="D24" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="E24" s="16" t="s">
+        <v>212</v>
+      </c>
+      <c r="F24" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="G24" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="H24" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" ht="42.75">
+      <c r="B25" s="24">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="D25" s="16" t="s">
+        <v>204</v>
+      </c>
+      <c r="E25" s="16" t="s">
+        <v>250</v>
+      </c>
+      <c r="F25" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="G25" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="H25" s="27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" ht="30">
+      <c r="B26" s="24">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="C26" s="18" t="s">
+        <v>202</v>
+      </c>
+      <c r="D26" s="17" t="s">
+        <v>247</v>
+      </c>
+      <c r="E26" s="19" t="s">
+        <v>244</v>
+      </c>
+      <c r="F26" s="19" t="s">
+        <v>243</v>
+      </c>
+      <c r="G26" s="19" t="s">
         <v>206</v>
       </c>
-      <c r="H13" s="17">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="B14" s="17">
-        <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="C14" s="17" t="s">
-        <v>179</v>
-      </c>
-      <c r="D14" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="E14" s="17" t="s">
-        <v>250</v>
-      </c>
-      <c r="F14" s="19" t="s">
+      <c r="H26" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" ht="42.75">
+      <c r="B27" s="24">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>194</v>
+      </c>
+      <c r="D27" s="16" t="s">
+        <v>238</v>
+      </c>
+      <c r="E27" s="16" t="s">
+        <v>209</v>
+      </c>
+      <c r="F27" s="19" t="s">
+        <v>223</v>
+      </c>
+      <c r="G27" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="H27" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" ht="28.5">
+      <c r="B28" s="24">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>195</v>
+      </c>
+      <c r="D28" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="E28" s="16" t="s">
+        <v>225</v>
+      </c>
+      <c r="F28" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="G28" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="H28" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" ht="42.75">
+      <c r="B29" s="24">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="D29" s="16" t="s">
+        <v>231</v>
+      </c>
+      <c r="E29" s="16" t="s">
+        <v>227</v>
+      </c>
+      <c r="F29" s="19" t="s">
+        <v>226</v>
+      </c>
+      <c r="G29" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="H29" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" ht="42.75">
+      <c r="B30" s="24">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="C30" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="D30" s="16" t="s">
+        <v>232</v>
+      </c>
+      <c r="E30" s="16" t="s">
+        <v>246</v>
+      </c>
+      <c r="F30" s="19" t="s">
+        <v>245</v>
+      </c>
+      <c r="G30" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="H30" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" ht="45">
+      <c r="B31" s="24">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="C31" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="D31" s="17" t="s">
+        <v>229</v>
+      </c>
+      <c r="E31" s="16" t="s">
+        <v>221</v>
+      </c>
+      <c r="F31" s="19" t="s">
+        <v>228</v>
+      </c>
+      <c r="G31" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="H31" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" ht="71.25">
+      <c r="B32" s="24">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
+      <c r="C32" s="16" t="s">
+        <v>233</v>
+      </c>
+      <c r="D32" s="16" t="s">
+        <v>236</v>
+      </c>
+      <c r="E32" s="16" t="s">
+        <v>235</v>
+      </c>
+      <c r="F32" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="G32" s="16" t="s">
+        <v>237</v>
+      </c>
+      <c r="H32" s="27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" ht="42.75">
+      <c r="B33" s="24">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="C33" s="16" t="s">
+        <v>239</v>
+      </c>
+      <c r="D33" s="16" t="s">
+        <v>270</v>
+      </c>
+      <c r="E33" s="16" t="s">
+        <v>251</v>
+      </c>
+      <c r="F33" s="16" t="s">
         <v>249</v>
       </c>
-      <c r="G14" s="17" t="s">
-        <v>164</v>
-      </c>
-      <c r="H14" s="17">
+      <c r="G33" s="19" t="s">
+        <v>268</v>
+      </c>
+      <c r="H33" s="27">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="2:8" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B15" s="17">
-        <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="C15" s="17" t="s">
-        <v>180</v>
-      </c>
-      <c r="D15" s="17" t="s">
-        <v>181</v>
-      </c>
-      <c r="E15" s="17" t="s">
-        <v>250</v>
-      </c>
-      <c r="F15" s="19" t="s">
+    <row r="34" spans="2:8" ht="42.75">
+      <c r="B34" s="24">
+        <f t="shared" si="1"/>
+        <v>31</v>
+      </c>
+      <c r="C34" s="16" t="s">
+        <v>240</v>
+      </c>
+      <c r="D34" s="16" t="s">
+        <v>271</v>
+      </c>
+      <c r="E34" s="17" t="s">
+        <v>251</v>
+      </c>
+      <c r="F34" s="17" t="s">
         <v>249</v>
       </c>
-      <c r="G15" s="17" t="s">
-        <v>164</v>
-      </c>
-      <c r="H15" s="17">
+      <c r="G34" s="19" t="s">
+        <v>268</v>
+      </c>
+      <c r="H34" s="30">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="2:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="17">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-      <c r="C16" s="17" t="s">
-        <v>186</v>
-      </c>
-      <c r="D16" s="17" t="s">
-        <v>187</v>
-      </c>
-      <c r="E16" s="19" t="s">
-        <v>250</v>
-      </c>
-      <c r="F16" s="19" t="s">
+    <row r="35" spans="2:8" ht="42.75">
+      <c r="B35" s="24">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="C35" s="16" t="s">
+        <v>241</v>
+      </c>
+      <c r="D35" s="16" t="s">
+        <v>269</v>
+      </c>
+      <c r="E35" s="17" t="s">
+        <v>251</v>
+      </c>
+      <c r="F35" s="17" t="s">
         <v>249</v>
       </c>
-      <c r="G16" s="17" t="s">
-        <v>164</v>
-      </c>
-      <c r="H16" s="17">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" s="17">
-        <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
-      <c r="C17" s="17" t="s">
-        <v>189</v>
-      </c>
-      <c r="D17" s="17" t="s">
-        <v>190</v>
-      </c>
-      <c r="E17" s="19" t="s">
-        <v>191</v>
-      </c>
-      <c r="F17" s="19"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B18" s="17">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="C18" s="17" t="s">
-        <v>193</v>
-      </c>
-      <c r="D18" s="17" t="s">
-        <v>210</v>
-      </c>
-      <c r="E18" s="17" t="s">
-        <v>209</v>
-      </c>
-      <c r="F18" s="21" t="s">
-        <v>208</v>
-      </c>
-      <c r="G18" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="H18" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B19" s="17">
-        <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="C19" s="17" t="s">
-        <v>192</v>
-      </c>
-      <c r="D19" s="17" t="s">
-        <v>219</v>
-      </c>
-      <c r="E19" s="17" t="s">
-        <v>218</v>
-      </c>
-      <c r="F19" s="22" t="s">
-        <v>217</v>
-      </c>
-      <c r="G19" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="H19" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="B20" s="17">
-        <f t="shared" si="1"/>
-        <v>17</v>
-      </c>
-      <c r="C20" s="18" t="s">
-        <v>199</v>
-      </c>
-      <c r="D20" s="23" t="s">
-        <v>216</v>
-      </c>
-      <c r="E20" s="23" t="s">
-        <v>215</v>
-      </c>
-      <c r="F20" s="21" t="s">
-        <v>214</v>
-      </c>
-      <c r="G20" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="H20" s="18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="B21" s="17">
-        <f t="shared" si="1"/>
-        <v>18</v>
-      </c>
-      <c r="C21" s="18" t="s">
-        <v>200</v>
-      </c>
-      <c r="D21" s="23" t="s">
-        <v>222</v>
-      </c>
-      <c r="E21" s="23" t="s">
-        <v>221</v>
-      </c>
-      <c r="F21" s="22" t="s">
-        <v>220</v>
-      </c>
-      <c r="G21" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="H21" s="18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B22" s="17">
-        <f t="shared" si="1"/>
-        <v>19</v>
-      </c>
-      <c r="C22" s="17" t="s">
-        <v>201</v>
-      </c>
-      <c r="D22" s="17" t="s">
-        <v>213</v>
-      </c>
-      <c r="E22" s="17" t="s">
-        <v>212</v>
-      </c>
-      <c r="F22" s="21" t="s">
-        <v>211</v>
-      </c>
-      <c r="G22" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="H22" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B23" s="17">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="C23" s="17" t="s">
-        <v>203</v>
-      </c>
-      <c r="D23" s="17" t="s">
-        <v>204</v>
-      </c>
-      <c r="E23" s="17" t="s">
-        <v>250</v>
-      </c>
-      <c r="F23" s="17" t="s">
+      <c r="G35" s="19" t="s">
+        <v>268</v>
+      </c>
+      <c r="H35" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" ht="30.75" thickBot="1">
+      <c r="B36" s="31">
+        <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
+      <c r="C36" s="32" t="s">
+        <v>248</v>
+      </c>
+      <c r="D36" s="32" t="s">
+        <v>272</v>
+      </c>
+      <c r="E36" s="33" t="s">
+        <v>251</v>
+      </c>
+      <c r="F36" s="33" t="s">
         <v>249</v>
       </c>
-      <c r="G23" s="17" t="s">
-        <v>164</v>
-      </c>
-      <c r="H23" s="17">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B24" s="17">
-        <f t="shared" si="1"/>
-        <v>21</v>
-      </c>
-      <c r="C24" s="18" t="s">
-        <v>202</v>
-      </c>
-      <c r="D24" s="23" t="s">
-        <v>247</v>
-      </c>
-      <c r="E24" s="21" t="s">
-        <v>244</v>
-      </c>
-      <c r="F24" s="22" t="s">
-        <v>243</v>
-      </c>
-      <c r="G24" s="21" t="s">
-        <v>206</v>
-      </c>
-      <c r="H24" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B25" s="17">
-        <f t="shared" si="1"/>
-        <v>22</v>
-      </c>
-      <c r="C25" s="17" t="s">
-        <v>194</v>
-      </c>
-      <c r="D25" s="17" t="s">
-        <v>238</v>
-      </c>
-      <c r="E25" s="17" t="s">
-        <v>209</v>
-      </c>
-      <c r="F25" s="22" t="s">
-        <v>223</v>
-      </c>
-      <c r="G25" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="H25" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B26" s="17">
-        <f t="shared" si="1"/>
-        <v>23</v>
-      </c>
-      <c r="C26" s="17" t="s">
-        <v>195</v>
-      </c>
-      <c r="D26" s="17" t="s">
-        <v>230</v>
-      </c>
-      <c r="E26" s="17" t="s">
-        <v>225</v>
-      </c>
-      <c r="F26" s="22" t="s">
-        <v>224</v>
-      </c>
-      <c r="G26" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="H26" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="B27" s="17">
-        <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-      <c r="C27" s="17" t="s">
-        <v>196</v>
-      </c>
-      <c r="D27" s="17" t="s">
-        <v>231</v>
-      </c>
-      <c r="E27" s="17" t="s">
-        <v>227</v>
-      </c>
-      <c r="F27" s="22" t="s">
-        <v>226</v>
-      </c>
-      <c r="G27" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="H27" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="B28" s="17">
-        <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
-      <c r="C28" s="17" t="s">
-        <v>197</v>
-      </c>
-      <c r="D28" s="17" t="s">
-        <v>232</v>
-      </c>
-      <c r="E28" s="17" t="s">
-        <v>246</v>
-      </c>
-      <c r="F28" s="22" t="s">
-        <v>245</v>
-      </c>
-      <c r="G28" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="H28" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="2:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="B29" s="17">
-        <f t="shared" si="1"/>
-        <v>26</v>
-      </c>
-      <c r="C29" s="17" t="s">
-        <v>198</v>
-      </c>
-      <c r="D29" s="23" t="s">
-        <v>229</v>
-      </c>
-      <c r="E29" s="17" t="s">
-        <v>221</v>
-      </c>
-      <c r="F29" s="22" t="s">
-        <v>228</v>
-      </c>
-      <c r="G29" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="H29" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="2:8" ht="51" x14ac:dyDescent="0.25">
-      <c r="B30" s="17">
-        <f t="shared" si="1"/>
-        <v>27</v>
-      </c>
-      <c r="C30" s="17" t="s">
-        <v>233</v>
-      </c>
-      <c r="D30" s="17" t="s">
-        <v>236</v>
-      </c>
-      <c r="E30" s="17" t="s">
-        <v>235</v>
-      </c>
-      <c r="F30" s="22" t="s">
-        <v>234</v>
-      </c>
-      <c r="G30" s="17" t="s">
-        <v>237</v>
-      </c>
-      <c r="H30" s="17">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="2:8" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="B31" s="17">
-        <f t="shared" si="1"/>
-        <v>28</v>
-      </c>
-      <c r="C31" s="17" t="s">
-        <v>239</v>
-      </c>
-      <c r="D31" s="17" t="s">
-        <v>270</v>
-      </c>
-      <c r="E31" s="17" t="s">
-        <v>251</v>
-      </c>
-      <c r="F31" s="17" t="s">
-        <v>249</v>
-      </c>
-      <c r="G31" s="24" t="s">
+      <c r="G36" s="34" t="s">
         <v>268</v>
       </c>
-      <c r="H31" s="17">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="2:8" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="B32" s="17">
-        <f t="shared" si="1"/>
-        <v>29</v>
-      </c>
-      <c r="C32" s="17" t="s">
-        <v>240</v>
-      </c>
-      <c r="D32" s="17" t="s">
-        <v>271</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="G32" s="24" t="s">
-        <v>268</v>
-      </c>
-      <c r="H32" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="2:8" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="B33" s="17">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-      <c r="C33" s="17" t="s">
-        <v>241</v>
-      </c>
-      <c r="D33" s="17" t="s">
-        <v>269</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="G33" s="24" t="s">
-        <v>268</v>
-      </c>
-      <c r="H33" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="2:8" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="B34" s="17">
-        <f t="shared" si="1"/>
-        <v>31</v>
-      </c>
-      <c r="C34" s="17" t="s">
-        <v>248</v>
-      </c>
-      <c r="D34" s="17" t="s">
-        <v>272</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="G34" s="24" t="s">
-        <v>268</v>
-      </c>
-      <c r="H34" s="1">
+      <c r="H36" s="35">
         <v>1</v>
       </c>
     </row>
@@ -3474,10 +3715,10 @@
   <dimension ref="B1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="14.140625" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
@@ -3485,355 +3726,355 @@
     <col min="5" max="5" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:5" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="36" t="s">
+    <row r="1" spans="2:5" ht="15.75" thickBot="1"/>
+    <row r="2" spans="2:5" ht="27" thickBot="1">
+      <c r="B2" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="38"/>
-    </row>
-    <row r="3" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="8" t="s">
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="52"/>
+    </row>
+    <row r="3" spans="2:5" ht="15.75" thickBot="1">
+      <c r="B3" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="9" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="11">
-        <v>1</v>
-      </c>
-      <c r="C4" s="30" t="s">
+    <row r="4" spans="2:5">
+      <c r="B4" s="53">
+        <v>1</v>
+      </c>
+      <c r="C4" s="54" t="s">
         <v>263</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="E4" s="31">
+      <c r="E4" s="55">
         <v>1.6</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="13">
+    <row r="5" spans="2:5">
+      <c r="B5" s="56">
         <f>B4+1</f>
         <v>2</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="1" t="s">
         <v>263</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="27">
+      <c r="E5" s="57">
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B6" s="13">
+    <row r="6" spans="2:5">
+      <c r="B6" s="56">
         <f t="shared" ref="B6:B25" si="0">B5+1</f>
         <v>3</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="13">
+      <c r="E6" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5">
+      <c r="B7" s="56">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C7" s="26" t="s">
+      <c r="C7" s="1" t="s">
         <v>263</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="27">
+      <c r="E7" s="57">
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="13">
+    <row r="8" spans="2:5">
+      <c r="B8" s="56">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C8" s="26" t="s">
+      <c r="C8" s="1" t="s">
         <v>263</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="13">
+      <c r="E8" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5">
+      <c r="B9" s="56">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C9" s="26" t="s">
+      <c r="C9" s="1" t="s">
         <v>264</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="27">
+      <c r="E9" s="57">
         <v>3.2</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B10" s="13">
+    <row r="10" spans="2:5">
+      <c r="B10" s="56">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C10" s="26" t="s">
+      <c r="C10" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="27">
+      <c r="E10" s="57">
         <v>0.9</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B11" s="13">
+    <row r="11" spans="2:5">
+      <c r="B11" s="56">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C11" s="26" t="s">
+      <c r="C11" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="D11" s="14" t="s">
+      <c r="D11" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E11" s="27">
+      <c r="E11" s="57">
         <v>3.2</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="13">
+    <row r="12" spans="2:5">
+      <c r="B12" s="56">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C12" s="26" t="s">
+      <c r="C12" s="1" t="s">
         <v>264</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="27">
+      <c r="E12" s="57">
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="13">
+    <row r="13" spans="2:5">
+      <c r="B13" s="56">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C13" s="26" t="s">
+      <c r="C13" s="1" t="s">
         <v>266</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="27">
+      <c r="E13" s="57">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B14" s="13">
+    <row r="14" spans="2:5">
+      <c r="B14" s="56">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="C14" s="26" t="s">
+      <c r="C14" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="D14" s="14" t="s">
+      <c r="D14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="27">
+      <c r="E14" s="57">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B15" s="13">
+    <row r="15" spans="2:5">
+      <c r="B15" s="56">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="C15" s="26" t="s">
+      <c r="C15" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="D15" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E15" s="27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B16" s="13">
+      <c r="E15" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5">
+      <c r="B16" s="56">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="C16" s="26" t="s">
+      <c r="C16" s="1" t="s">
         <v>266</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E16" s="27">
+      <c r="E16" s="57">
         <v>2.9</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="13">
+    <row r="17" spans="2:5">
+      <c r="B17" s="56">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="C17" s="26" t="s">
+      <c r="C17" s="1" t="s">
         <v>267</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E17" s="27">
+      <c r="E17" s="57">
         <v>4.8999999999999995</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="13">
+    <row r="18" spans="2:5">
+      <c r="B18" s="56">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="C18" s="26" t="s">
+      <c r="C18" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="D18" s="14" t="s">
+      <c r="D18" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E18" s="27">
+      <c r="E18" s="57">
         <v>4.6999999999999993</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="13">
+    <row r="19" spans="2:5">
+      <c r="B19" s="56">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="C19" s="26" t="s">
+      <c r="C19" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="D19" s="14" t="s">
+      <c r="D19" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E19" s="27">
+      <c r="E19" s="57">
         <v>4.5</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B20" s="13">
+    <row r="20" spans="2:5">
+      <c r="B20" s="56">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="C20" s="26" t="s">
+      <c r="C20" s="1" t="s">
         <v>267</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E20" s="27">
+      <c r="E20" s="57">
         <v>4.8999999999999995</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B21" s="13">
+    <row r="21" spans="2:5">
+      <c r="B21" s="56">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="C21" s="26" t="s">
+      <c r="C21" s="1" t="s">
         <v>265</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E21" s="27">
+      <c r="E21" s="57">
         <v>0.79999999999999993</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B22" s="13">
+    <row r="22" spans="2:5">
+      <c r="B22" s="56">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="C22" s="26" t="s">
+      <c r="C22" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="D22" s="14" t="s">
+      <c r="D22" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E22" s="27">
+      <c r="E22" s="57">
         <v>0.79999999999999993</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B23" s="13">
+    <row r="23" spans="2:5">
+      <c r="B23" s="56">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="C23" s="26" t="s">
+      <c r="C23" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="D23" s="14" t="s">
+      <c r="D23" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E23" s="27">
+      <c r="E23" s="57">
         <v>1.9000000000000001</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B24" s="13">
+    <row r="24" spans="2:5">
+      <c r="B24" s="56">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="C24" s="26" t="s">
+      <c r="C24" s="1" t="s">
         <v>265</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E24" s="27">
+      <c r="E24" s="57">
         <v>2.1</v>
       </c>
     </row>
-    <row r="25" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="15">
+    <row r="25" spans="2:5" ht="15.75" thickBot="1">
+      <c r="B25" s="58">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="C25" s="28" t="s">
+      <c r="C25" s="2" t="s">
         <v>265</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E25" s="29">
+      <c r="E25" s="59">
         <v>1.3</v>
       </c>
     </row>
